--- a/Assets/Resources/MasterData/ItemData.xlsx
+++ b/Assets/Resources/MasterData/ItemData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\2DRoguelike\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6FC3AA-225F-4A07-810C-76DEF992B834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6EA99D-2F3B-426B-97EF-B8A7FCFC5A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2880" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31920" yWindow="6120" windowWidth="18195" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemData" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -461,8 +461,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <f>A2+100</f>
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C2" s="2">
         <f>VLOOKUP(D2,reference!A:B,2,FALSE)</f>
@@ -480,8 +479,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" ref="B3:B9" si="0">A3+100</f>
-        <v>101</v>
+        <v>1001</v>
       </c>
       <c r="C3" s="2">
         <f>VLOOKUP(D3,reference!A:B,2,FALSE)</f>
@@ -499,8 +497,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" si="0"/>
-        <v>102</v>
+        <v>1002</v>
       </c>
       <c r="C4" s="2">
         <f>VLOOKUP(D4,reference!A:B,2,FALSE)</f>
@@ -518,8 +515,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" si="0"/>
-        <v>103</v>
+        <v>1003</v>
       </c>
       <c r="C5" s="2">
         <f>VLOOKUP(D5,reference!A:B,2,FALSE)</f>
@@ -537,8 +533,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" si="0"/>
-        <v>104</v>
+        <v>1004</v>
       </c>
       <c r="C6" s="2">
         <f>VLOOKUP(D6,reference!A:B,2,FALSE)</f>
@@ -556,8 +551,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <f t="shared" si="0"/>
-        <v>105</v>
+        <v>1005</v>
       </c>
       <c r="C7" s="2">
         <f>VLOOKUP(D7,reference!A:B,2,FALSE)</f>
@@ -575,8 +569,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <f t="shared" si="0"/>
-        <v>106</v>
+        <v>1006</v>
       </c>
       <c r="C8" s="2">
         <f>VLOOKUP(D8,reference!A:B,2,FALSE)</f>
@@ -594,8 +587,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <f t="shared" si="0"/>
-        <v>107</v>
+        <v>1007</v>
       </c>
       <c r="C9" s="2">
         <f>VLOOKUP(D9,reference!A:B,2,FALSE)</f>
